--- a/项目/适配.xlsx
+++ b/项目/适配.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>xs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>iPad Air 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米Max3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -616,7 +620,7 @@
         <v>750</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D28" si="3">B15/C15</f>
+        <f t="shared" ref="D15:D29" si="3">B15/C15</f>
         <v>1.7786666666666666</v>
       </c>
     </row>
@@ -757,60 +761,75 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>2048</v>
+        <v>2160</v>
       </c>
       <c r="C25">
-        <v>1536</v>
+        <v>1080</v>
       </c>
       <c r="D25">
-        <f>B25/C25</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>2388</v>
+        <v>2048</v>
       </c>
       <c r="C26">
-        <v>1668</v>
+        <v>1536</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>1.4316546762589928</v>
+        <f>B26/C26</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>2732</v>
+        <v>2388</v>
       </c>
       <c r="C27">
-        <v>2048</v>
+        <v>1668</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>1.333984375</v>
+        <v>1.4316546762589928</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>2732</v>
+      </c>
+      <c r="C28">
+        <v>2048</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>1.333984375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>2880</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1800</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
